--- a/Results/TabularResultsData.xlsx
+++ b/Results/TabularResultsData.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lapof\Documents\Development\ProjectedAreaHeuristic\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A19228E-068D-46CB-A0A4-0A187B074E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72AB4A6-0F0C-4B3B-A3DD-8B2379355525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D960CCAE-9874-4974-9AB0-96D99BBC8B80}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D960CCAE-9874-4974-9AB0-96D99BBC8B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -253,102 +253,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.749992370372631"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -395,6 +305,102 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CC33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6699FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00F4EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2FBEBB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -672,124 +678,62 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="11" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="12" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="13" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="14" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="15" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="15" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="16" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="16" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="10" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="17" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="18" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="19" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="20" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="17" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="18" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="19" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="20" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -799,28 +743,90 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="10" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="11" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="12" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="13" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="14" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="15" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="15" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="16" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="16" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="17" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="17" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="18" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="18" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="19" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="19" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="20" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="20" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="20" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="21" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="21" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="21" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="22" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="22" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="22" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -839,6 +845,12 @@
     <xf numFmtId="2" fontId="3" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="24" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="24" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="25" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="25" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="25" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,16 +860,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF00FF"/>
-      <color rgb="FFFF66FF"/>
-      <color rgb="FFFF99FF"/>
-      <color rgb="FFFFCCFF"/>
-      <color rgb="FFFFCC00"/>
-      <color rgb="FFCC9900"/>
-      <color rgb="FFFFFF00"/>
-      <color rgb="FFFFFF66"/>
-      <color rgb="FFFFFF99"/>
-      <color rgb="FFFFFFCC"/>
+      <color rgb="FF2FBEBB"/>
+      <color rgb="FF00F4EE"/>
+      <color rgb="FF33CCCC"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FF3366FF"/>
+      <color rgb="FF6699FF"/>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FFCCECFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -972,78 +984,150 @@
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>Random100 plane full 0° (parallel)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Random100 plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Random100 plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Random100 plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Random100 plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Random100 plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random100 plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Random100 plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Random1000 plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Random1000 plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Random1000 plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Random1000 plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Random1000 plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Random1000 plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Random1000 plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>Random1000 plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Suzanne plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>Suzanne plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Suzanne plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>Suzanne plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Suzanne plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
+                  <c:v>Suzanne plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>Suzanne plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>Suzanne plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Wood plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
+                  <c:v>Wood plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Wood plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>Wood plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>Wood plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>Wood plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>Wood plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
+                  <c:v>Wood plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>Cottage plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>Cottage plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>Cottage plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
+                  <c:v>Cottage plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>Cottage plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>Cottage plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>Cottage plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>Cottage plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>CottageWalls plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
+                  <c:v>CottageWalls plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>CottageWalls plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
+                  <c:v>CottageWalls plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>CottageWalls plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="45">
+                  <c:v>CottageWalls plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>CottageWalls plane full oblique</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CottageWalls plane full oblique longest split</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1053,78 +1137,150 @@
               <c:f>Sheet1!$B$3:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>11.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>12.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>14.74</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>14.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>15.68</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>15.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>17.84</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>17.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>42.84</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>46.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>55.3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>54.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>59.91</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>66.92</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>66.92</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>29.49</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>29.47</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>31.28</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>31.32</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>37.82</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
+                  <c:v>37.83</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>34.19</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>34.26</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>72.81</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
+                  <c:v>90.33</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>78.53</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>135.19</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>75.680000000000007</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>100.06</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>73.83</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
+                  <c:v>92.73</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>52.99</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>72.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>71.52</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
+                  <c:v>110.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>71.77</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>134.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>64.069999999999993</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>113.63</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>64.900000000000006</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
+                  <c:v>103.52</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>70.19</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
+                  <c:v>91.06</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>67.41</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="45">
+                  <c:v>115.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>49.41</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,78 +1346,150 @@
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>Random100 plane full 0° (parallel)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Random100 plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Random100 plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Random100 plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Random100 plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Random100 plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random100 plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Random100 plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Random1000 plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Random1000 plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Random1000 plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Random1000 plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Random1000 plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Random1000 plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Random1000 plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>Random1000 plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Suzanne plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>Suzanne plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Suzanne plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>Suzanne plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Suzanne plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
+                  <c:v>Suzanne plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>Suzanne plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>Suzanne plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Wood plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
+                  <c:v>Wood plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Wood plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>Wood plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>Wood plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>Wood plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>Wood plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
+                  <c:v>Wood plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>Cottage plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>Cottage plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>Cottage plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
+                  <c:v>Cottage plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>Cottage plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>Cottage plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>Cottage plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>Cottage plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>CottageWalls plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
+                  <c:v>CottageWalls plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>CottageWalls plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
+                  <c:v>CottageWalls plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>CottageWalls plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="45">
+                  <c:v>CottageWalls plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>CottageWalls plane full oblique</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CottageWalls plane full oblique longest split</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1271,7 +1499,7 @@
               <c:f>Sheet1!$C$3:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>18.61</c:v>
                 </c:pt>
@@ -1285,63 +1513,135 @@
                   <c:v>18.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>18.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>67.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>67.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>67.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>67.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>37.08</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>37.08</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="18">
                   <c:v>37.08</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>37.08</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
+                  <c:v>37.08</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.08</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37.08</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37.08</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>125.31</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
                   <c:v>125.31</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="26">
                   <c:v>125.31</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="27">
                   <c:v>125.31</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>125.31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>125.31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>125.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>125.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>103.55</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
                   <c:v>103.55</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="34">
                   <c:v>103.55</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="35">
                   <c:v>103.55</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="36">
+                  <c:v>103.55</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>103.55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>103.55</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>103.55</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>73.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
                   <c:v>73.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="42">
                   <c:v>73.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="43">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>73.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -1408,78 +1708,150 @@
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>Random100 plane full 0° (parallel)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Random100 plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Random100 plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Random100 plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Random100 plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Random100 plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random100 plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Random100 plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Random1000 plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Random1000 plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Random1000 plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Random1000 plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Random1000 plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Random1000 plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Random1000 plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>Random1000 plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Suzanne plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>Suzanne plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Suzanne plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>Suzanne plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Suzanne plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
+                  <c:v>Suzanne plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>Suzanne plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>Suzanne plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Wood plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
+                  <c:v>Wood plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Wood plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>Wood plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>Wood plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>Wood plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>Wood plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
+                  <c:v>Wood plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>Cottage plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>Cottage plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>Cottage plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
+                  <c:v>Cottage plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>Cottage plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>Cottage plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>Cottage plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>Cottage plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>CottageWalls plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
+                  <c:v>CottageWalls plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>CottageWalls plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
+                  <c:v>CottageWalls plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>CottageWalls plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="45">
+                  <c:v>CottageWalls plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>CottageWalls plane full oblique</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CottageWalls plane full oblique longest split</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1489,78 +1861,150 @@
               <c:f>Sheet1!$D$3:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>28.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>29.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>33.57</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>34.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>38.15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>37.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>41.18</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>41.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>71.14</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>74.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>91.32</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>88.13</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>108.13</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>106.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>126.45</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>126.56</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>36.4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>37.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>46.44</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>47.99</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>53.99</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
+                  <c:v>54.27</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>67.3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>67.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>100.09</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
+                  <c:v>113.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>90.01</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>136.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>90.41</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>111.85</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>92.76</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
+                  <c:v>109.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>83.64</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>105.65</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>83.04</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
+                  <c:v>122.11</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>83.17</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>140.46</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>77.430000000000007</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>122.66</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>59.65</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
+                  <c:v>108.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>94.85</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
+                  <c:v>119.73</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>89.05</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="45">
+                  <c:v>162.26</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>94.89</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>108.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,78 +2070,150 @@
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>Random100 plane full 0° (parallel)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Random100 plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Random100 plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Random100 plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Random100 plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Random100 plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random100 plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Random100 plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Random1000 plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Random1000 plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Random1000 plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Random1000 plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Random1000 plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Random1000 plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Random1000 plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>Random1000 plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Suzanne plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>Suzanne plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Suzanne plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>Suzanne plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Suzanne plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
+                  <c:v>Suzanne plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>Suzanne plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>Suzanne plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Wood plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
+                  <c:v>Wood plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Wood plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>Wood plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>Wood plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>Wood plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>Wood plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
+                  <c:v>Wood plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>Cottage plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>Cottage plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>Cottage plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
+                  <c:v>Cottage plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>Cottage plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>Cottage plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>Cottage plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>Cottage plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>CottageWalls plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
+                  <c:v>CottageWalls plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>CottageWalls plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
+                  <c:v>CottageWalls plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>CottageWalls plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="45">
+                  <c:v>CottageWalls plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>CottageWalls plane full oblique</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CottageWalls plane full oblique longest split</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1707,78 +2223,150 @@
               <c:f>Sheet1!$G$3:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>13.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>13.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>16.39</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>16.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>18.68</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>18.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>22.04</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>22.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>54.58</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>58.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>69.19</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>69.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>82.87</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>81.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>98.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>97.87</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>32.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>40.619999999999997</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>41.79</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>47.01</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
+                  <c:v>47.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>59.68</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>59.88</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>74.52</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
+                  <c:v>88.18</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>74.349999999999994</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>120.59</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>77.61</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>100.76</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>82.54</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
+                  <c:v>99.72</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>52.14</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>72.09</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>74.45</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
+                  <c:v>111.28</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>74.260000000000005</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>127.98</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>72.180000000000007</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>118.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>59.65</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
+                  <c:v>108.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>94.85</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
+                  <c:v>119.73</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>89.05</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="45">
+                  <c:v>162.26</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>94.89</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>108.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,78 +2432,150 @@
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>Random100 plane full 0° (parallel)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Random100 plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Random100 plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Random100 plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Random100 plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Random100 plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random100 plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Random100 plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Random1000 plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Random1000 plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Random1000 plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Random1000 plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Random1000 plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Random1000 plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Random1000 plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>Random1000 plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Suzanne plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>Suzanne plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Suzanne plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>Suzanne plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Suzanne plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
+                  <c:v>Suzanne plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>Suzanne plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>Suzanne plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Wood plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
+                  <c:v>Wood plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Wood plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>Wood plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>Wood plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>Wood plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>Wood plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
+                  <c:v>Wood plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>Cottage plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>Cottage plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>Cottage plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
+                  <c:v>Cottage plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>Cottage plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>Cottage plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>Cottage plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>Cottage plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>CottageWalls plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
+                  <c:v>CottageWalls plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>CottageWalls plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
+                  <c:v>CottageWalls plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>CottageWalls plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="45">
+                  <c:v>CottageWalls plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>CottageWalls plane full oblique</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CottageWalls plane full oblique longest split</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1925,78 +2585,150 @@
               <c:f>Sheet1!$J$3:$J$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>19.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>19.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>20.58</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>20.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>22.76</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>22.77</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>22.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>84.65</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>86.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>84.43</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>85.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>93.2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>90.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>99.46</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>98.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>45.03</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>45.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>48.56</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>49.18</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>50.17</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
+                  <c:v>50.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>64.94</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>64.37</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>141.59</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
+                  <c:v>141.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>137.16</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>131.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>130.24</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>133.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>143.56</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
+                  <c:v>141.78</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>109.65</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>109.56</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>127.83</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
+                  <c:v>123.97</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>140.36000000000001</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>135.34</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>125.37</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>128.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>144.07</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
+                  <c:v>143.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>172.34</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
+                  <c:v>177.31</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>204.42</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="45">
+                  <c:v>206.09</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>163.29</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>167.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2080,78 +2812,150 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="48"/>
                       <c:pt idx="0">
                         <c:v>Random100 plane full 0° (parallel)</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>Random100 plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>Random100 plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>Random100 plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>Random100 plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
+                        <c:v>Random100 plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>Random100 plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="7">
+                        <c:v>Random100 plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
                         <c:v>Random1000 plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="9">
+                        <c:v>Random1000 plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>Random1000 plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="11">
+                        <c:v>Random1000 plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>Random1000 plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="13">
+                        <c:v>Random1000 plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>Random1000 plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="15">
+                        <c:v>Random1000 plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
                         <c:v>Suzanne plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="17">
+                        <c:v>Suzanne plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
                         <c:v>Suzanne plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="19">
+                        <c:v>Suzanne plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>Suzanne plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="21">
+                        <c:v>Suzanne plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>Suzanne plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="23">
+                        <c:v>Suzanne plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>Wood plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="25">
+                        <c:v>Wood plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
                         <c:v>Wood plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="27">
+                        <c:v>Wood plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>Wood plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="29">
+                        <c:v>Wood plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
                         <c:v>Wood plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="31">
+                        <c:v>Wood plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
                         <c:v>Cottage plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="33">
+                        <c:v>Cottage plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
                         <c:v>Cottage plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="35">
+                        <c:v>Cottage plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
                         <c:v>Cottage plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="37">
+                        <c:v>Cottage plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
                         <c:v>Cottage plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="39">
+                        <c:v>Cottage plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
                         <c:v>CottageWalls plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="41">
+                        <c:v>CottageWalls plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
                         <c:v>CottageWalls plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="43">
+                        <c:v>CottageWalls plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
                         <c:v>CottageWalls plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="45">
+                        <c:v>CottageWalls plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
                         <c:v>CottageWalls plane full oblique</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>CottageWalls plane full oblique longest split</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2167,78 +2971,150 @@
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="48"/>
                       <c:pt idx="0">
                         <c:v>15.94</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>16.350000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>18.37</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>18.64</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>20.79</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
+                        <c:v>20.66</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>22.34</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="7">
+                        <c:v>22.51</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
                         <c:v>42.9</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="9">
+                        <c:v>44.93</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>53.17</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="11">
+                        <c:v>51.23</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>62.7</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="13">
+                        <c:v>61.74</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>72.510000000000005</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="15">
+                        <c:v>72.45</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
                         <c:v>23.54</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="17">
+                        <c:v>24.75</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
                         <c:v>29.48</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="19">
+                        <c:v>30.43</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>33.119999999999997</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="21">
+                        <c:v>33.06</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>42.1</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="23">
+                        <c:v>42.18</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>66.52</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="25">
+                        <c:v>76.540000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
                         <c:v>56.81</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="27">
+                        <c:v>94.22</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>55.22</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="29">
+                        <c:v>72.709999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
                         <c:v>56.73</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="31">
+                        <c:v>70.87</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
                         <c:v>59.42</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="33">
+                        <c:v>76.599999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
                         <c:v>53.1</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="35">
+                        <c:v>86.55</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
                         <c:v>51.22</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="37">
+                        <c:v>100.49</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
                         <c:v>47.55</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="39">
+                        <c:v>87.5</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
                         <c:v>40.03</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="41">
+                        <c:v>74.680000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
                         <c:v>59.4</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="43">
+                        <c:v>81.430000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
                         <c:v>52.4</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="45">
+                        <c:v>114.52</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
                         <c:v>56.34</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>68.92</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2257,7 +3133,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$1:$H$2</c15:sqref>
@@ -2307,7 +3183,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3:$A$50</c15:sqref>
@@ -2315,85 +3191,157 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="48"/>
                       <c:pt idx="0">
                         <c:v>Random100 plane full 0° (parallel)</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>Random100 plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>Random100 plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>Random100 plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>Random100 plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
+                        <c:v>Random100 plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>Random100 plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="7">
+                        <c:v>Random100 plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
                         <c:v>Random1000 plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="9">
+                        <c:v>Random1000 plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>Random1000 plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="11">
+                        <c:v>Random1000 plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>Random1000 plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="13">
+                        <c:v>Random1000 plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>Random1000 plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="15">
+                        <c:v>Random1000 plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
                         <c:v>Suzanne plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="17">
+                        <c:v>Suzanne plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
                         <c:v>Suzanne plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="19">
+                        <c:v>Suzanne plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>Suzanne plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="21">
+                        <c:v>Suzanne plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>Suzanne plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="23">
+                        <c:v>Suzanne plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>Wood plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="25">
+                        <c:v>Wood plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
                         <c:v>Wood plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="27">
+                        <c:v>Wood plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>Wood plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="29">
+                        <c:v>Wood plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
                         <c:v>Wood plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="31">
+                        <c:v>Wood plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
                         <c:v>Cottage plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="33">
+                        <c:v>Cottage plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
                         <c:v>Cottage plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="35">
+                        <c:v>Cottage plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
                         <c:v>Cottage plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="37">
+                        <c:v>Cottage plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
                         <c:v>Cottage plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="39">
+                        <c:v>Cottage plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
                         <c:v>CottageWalls plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="41">
+                        <c:v>CottageWalls plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
                         <c:v>CottageWalls plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="43">
+                        <c:v>CottageWalls plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
                         <c:v>CottageWalls plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="45">
+                        <c:v>CottageWalls plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
                         <c:v>CottageWalls plane full oblique</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>CottageWalls plane full oblique longest split</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$3:$H$50</c15:sqref>
@@ -2402,78 +3350,150 @@
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="48"/>
                       <c:pt idx="0">
                         <c:v>7.53</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>7.67</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>9.1199999999999992</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>9.23</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>10.31</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
+                        <c:v>10.11</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>12.03</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="7">
+                        <c:v>12.11</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
                         <c:v>33.36</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="9">
+                        <c:v>35.54</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>40.47</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="11">
+                        <c:v>40.56</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>48.16</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="13">
+                        <c:v>47.28</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>56.6</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="15">
+                        <c:v>56.08</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
                         <c:v>21.14</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="17">
+                        <c:v>21.97</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
                         <c:v>26.19</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="19">
+                        <c:v>26.89</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>29.11</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="21">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>37.6</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="23">
+                        <c:v>37.72</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>48.72</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="25">
+                        <c:v>58.67</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
                         <c:v>46.68</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="27">
+                        <c:v>83.8</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>47</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="29">
+                        <c:v>65.64</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
                         <c:v>50.37</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="31">
+                        <c:v>64.67</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
                         <c:v>35.79</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="33">
+                        <c:v>51.29</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
                         <c:v>46.71</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="35">
+                        <c:v>78.459999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
                         <c:v>44.97</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="37">
+                        <c:v>91.21</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
                         <c:v>43.8</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="39">
+                        <c:v>84.32</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
                         <c:v>39.950000000000003</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="41">
+                        <c:v>74.680000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
                         <c:v>59.4</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="43">
+                        <c:v>81.430000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
                         <c:v>52.4</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="45">
+                        <c:v>114.52</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
                         <c:v>56.34</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>68.92</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2492,7 +3512,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$1:$I$2</c15:sqref>
@@ -2542,7 +3562,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3:$A$50</c15:sqref>
@@ -2550,85 +3570,157 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="48"/>
                       <c:pt idx="0">
                         <c:v>Random100 plane full 0° (parallel)</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>Random100 plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>Random100 plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>Random100 plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>Random100 plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
+                        <c:v>Random100 plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>Random100 plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="7">
+                        <c:v>Random100 plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
                         <c:v>Random1000 plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="9">
+                        <c:v>Random1000 plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>Random1000 plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="11">
+                        <c:v>Random1000 plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>Random1000 plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="13">
+                        <c:v>Random1000 plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>Random1000 plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="15">
+                        <c:v>Random1000 plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
                         <c:v>Suzanne plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="17">
+                        <c:v>Suzanne plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
                         <c:v>Suzanne plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="19">
+                        <c:v>Suzanne plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>Suzanne plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="21">
+                        <c:v>Suzanne plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>Suzanne plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="23">
+                        <c:v>Suzanne plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>Wood plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="25">
+                        <c:v>Wood plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
                         <c:v>Wood plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="27">
+                        <c:v>Wood plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>Wood plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="29">
+                        <c:v>Wood plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
                         <c:v>Wood plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="31">
+                        <c:v>Wood plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
                         <c:v>Cottage plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="33">
+                        <c:v>Cottage plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
                         <c:v>Cottage plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="35">
+                        <c:v>Cottage plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
                         <c:v>Cottage plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="37">
+                        <c:v>Cottage plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
                         <c:v>Cottage plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="39">
+                        <c:v>Cottage plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
                         <c:v>CottageWalls plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="41">
+                        <c:v>CottageWalls plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
                         <c:v>CottageWalls plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="43">
+                        <c:v>CottageWalls plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
                         <c:v>CottageWalls plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="45">
+                        <c:v>CottageWalls plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
                         <c:v>CottageWalls plane full oblique</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>CottageWalls plane full oblique longest split</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$3:$I$50</c15:sqref>
@@ -2637,78 +3729,150 @@
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="48"/>
                       <c:pt idx="0">
                         <c:v>0.10175145954962474</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>8.9371980676328455E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>0.1119402985074627</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>0.11007338225483658</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>0.19132653061224489</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
+                        <c:v>0.16096324461343478</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>0.23542600896860982</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="7">
+                        <c:v>0.24215246636771301</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
                         <c:v>0.27404295051353861</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="9">
+                        <c:v>0.26158155569920277</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>0.25117540687160944</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="11">
+                        <c:v>0.26580433594461655</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>0.38324152896010699</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="13">
+                        <c:v>0.36216666666666675</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>0.47190675433353252</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="15">
+                        <c:v>0.46249252839211002</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
                         <c:v>8.5113597829772861E-2</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="17">
+                        <c:v>0.11808618934509685</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
                         <c:v>0.29859335038363161</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="19">
+                        <c:v>0.33429118773946354</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>0.2429931253305129</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="21">
+                        <c:v>0.24821570182394928</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>0.74553963147119051</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="23">
+                        <c:v>0.74781085814360793</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>2.3485784919653807E-2</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="25">
+                        <c:v>-2.3801616295804181E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
                         <c:v>-5.3228065707373068E-2</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="27">
+                        <c:v>-0.10799615356165393</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>2.5502114164904763E-2</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="29">
+                        <c:v>6.9958025184889347E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
                         <c:v>0.11797372341866461</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="31">
+                        <c:v>7.5380135878356458E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
                         <c:v>-1.6040762408001535E-2</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="33">
+                        <c:v>-1.1517893870835093E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
                         <c:v>4.0967561521252895E-2</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="35">
+                        <c:v>8.4277299501586481E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
                         <c:v>3.4694161906089024E-2</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="37">
+                        <c:v>-4.8617305976806469E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
                         <c:v>0.12658030279381949</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="39">
+                        <c:v>3.9338202939364596E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
                         <c:v>-8.0893682588597943E-2</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="41">
+                        <c:v>4.7237248840803714E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
                         <c:v>0.35133209858954262</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="43">
+                        <c:v>0.314847353393367</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
                         <c:v>0.32102062008604065</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="45">
+                        <c:v>0.40120898100172708</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
                         <c:v>0.9204614450516091</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.65513562938128611</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2727,7 +3891,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$1:$K$2</c15:sqref>
@@ -2777,7 +3941,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3:$A$50</c15:sqref>
@@ -2785,85 +3949,157 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="48"/>
                       <c:pt idx="0">
                         <c:v>Random100 plane full 0° (parallel)</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>Random100 plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>Random100 plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>Random100 plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>Random100 plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
+                        <c:v>Random100 plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>Random100 plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="7">
+                        <c:v>Random100 plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
                         <c:v>Random1000 plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="9">
+                        <c:v>Random1000 plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>Random1000 plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="11">
+                        <c:v>Random1000 plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>Random1000 plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="13">
+                        <c:v>Random1000 plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>Random1000 plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="15">
+                        <c:v>Random1000 plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
                         <c:v>Suzanne plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="17">
+                        <c:v>Suzanne plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
                         <c:v>Suzanne plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="19">
+                        <c:v>Suzanne plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>Suzanne plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="21">
+                        <c:v>Suzanne plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>Suzanne plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="23">
+                        <c:v>Suzanne plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>Wood plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="25">
+                        <c:v>Wood plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
                         <c:v>Wood plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="27">
+                        <c:v>Wood plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>Wood plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="29">
+                        <c:v>Wood plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
                         <c:v>Wood plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="31">
+                        <c:v>Wood plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
                         <c:v>Cottage plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="33">
+                        <c:v>Cottage plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
                         <c:v>Cottage plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="35">
+                        <c:v>Cottage plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
                         <c:v>Cottage plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="37">
+                        <c:v>Cottage plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
                         <c:v>Cottage plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="39">
+                        <c:v>Cottage plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
                         <c:v>CottageWalls plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="41">
+                        <c:v>CottageWalls plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
                         <c:v>CottageWalls plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="43">
+                        <c:v>CottageWalls plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
                         <c:v>CottageWalls plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="45">
+                        <c:v>CottageWalls plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
                         <c:v>CottageWalls plane full oblique</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>CottageWalls plane full oblique longest split</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$3:$K$50</c15:sqref>
@@ -2872,78 +4108,150 @@
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="48"/>
                       <c:pt idx="0">
                         <c:v>10.76</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>10.79</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>11.2</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>11.24</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>12.34</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
+                        <c:v>12.33</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>12.39</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="7">
+                        <c:v>12.48</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
                         <c:v>48.03</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="9">
+                        <c:v>48.88</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>47.87</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="11">
+                        <c:v>48.54</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>53</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="13">
+                        <c:v>51.74</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>56.83</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="15">
+                        <c:v>56.28</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
                         <c:v>27.97</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="17">
+                        <c:v>28.7</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
                         <c:v>30.25</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="19">
+                        <c:v>30.64</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>31.34</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="21">
+                        <c:v>31.15</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>40.64</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="23">
+                        <c:v>40.159999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>99.41</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="25">
+                        <c:v>98.2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
                         <c:v>96.56</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="27">
+                        <c:v>99.23</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>88.72</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="29">
+                        <c:v>91.09</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
                         <c:v>102.02</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="31">
+                        <c:v>101.1</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
                         <c:v>77.11</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="33">
+                        <c:v>77.88</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
                         <c:v>91.22</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="35">
+                        <c:v>87.8</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
                         <c:v>100.61</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="37">
+                        <c:v>97.1</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
                         <c:v>88.96</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="39">
+                        <c:v>91.5</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
                         <c:v>98.18</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="41">
+                        <c:v>97.88</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
                         <c:v>117.96</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="43">
+                        <c:v>122.2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
                         <c:v>143.21</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="45">
+                        <c:v>145.22999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
                         <c:v>112.11</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>115.72</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2962,7 +4270,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$1:$L$2</c15:sqref>
@@ -3012,7 +4320,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3:$A$50</c15:sqref>
@@ -3020,85 +4328,157 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="48"/>
                       <c:pt idx="0">
                         <c:v>Random100 plane full 0° (parallel)</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>Random100 plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>Random100 plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>Random100 plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>Random100 plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
+                        <c:v>Random100 plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>Random100 plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="7">
+                        <c:v>Random100 plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
                         <c:v>Random1000 plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="9">
+                        <c:v>Random1000 plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>Random1000 plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="11">
+                        <c:v>Random1000 plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>Random1000 plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="13">
+                        <c:v>Random1000 plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>Random1000 plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="15">
+                        <c:v>Random1000 plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
                         <c:v>Suzanne plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="17">
+                        <c:v>Suzanne plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
                         <c:v>Suzanne plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="19">
+                        <c:v>Suzanne plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>Suzanne plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="21">
+                        <c:v>Suzanne plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>Suzanne plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="23">
+                        <c:v>Suzanne plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>Wood plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="25">
+                        <c:v>Wood plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
                         <c:v>Wood plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="27">
+                        <c:v>Wood plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>Wood plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="29">
+                        <c:v>Wood plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
                         <c:v>Wood plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="31">
+                        <c:v>Wood plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
                         <c:v>Cottage plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="33">
+                        <c:v>Cottage plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
                         <c:v>Cottage plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="35">
+                        <c:v>Cottage plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
                         <c:v>Cottage plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="37">
+                        <c:v>Cottage plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
                         <c:v>Cottage plane full oblique</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="39">
+                        <c:v>Cottage plane full oblique longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
                         <c:v>CottageWalls plane full 0° (parallel)</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="41">
+                        <c:v>CottageWalls plane full 0° (parallel) longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
                         <c:v>CottageWalls plane full 15°</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="43">
+                        <c:v>CottageWalls plane full 15° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
                         <c:v>CottageWalls plane full 45°</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="45">
+                        <c:v>CottageWalls plane full 45° longest split</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
                         <c:v>CottageWalls plane full oblique</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>CottageWalls plane full oblique longest split</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$3:$L$50</c15:sqref>
@@ -3107,78 +4487,150 @@
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="48"/>
                       <c:pt idx="0">
                         <c:v>5.749596990865128E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>6.2332079527135958E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>0.10585706609349806</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>0.11123052122514779</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>0.22299838796346064</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
                         <c:v>0.22353573347662548</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="6">
+                        <c:v>0.22353573347662548</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.22998387963460512</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
                         <c:v>0.25407407407407417</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="9">
+                        <c:v>0.27703703703703708</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>0.25081481481481493</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="11">
+                        <c:v>0.2705185185185186</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>0.38074074074074077</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="13">
+                        <c:v>0.3441481481481482</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>0.47348148148148139</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="15">
+                        <c:v>0.45955555555555549</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
                         <c:v>0.21440129449838197</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="17">
+                        <c:v>0.23570658036677461</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
                         <c:v>0.30960086299892137</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="19">
+                        <c:v>0.32632146709816617</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>0.35302049622437981</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="21">
+                        <c:v>0.35248112189859765</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>0.75134843581445521</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="23">
+                        <c:v>0.73597626752966583</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>0.12991780384646079</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="25">
+                        <c:v>0.1273641369403879</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
                         <c:v>9.4565477615513482E-2</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="27">
+                        <c:v>5.2509775756124685E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>3.9342430771686275E-2</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="29">
+                        <c:v>6.6475141648711072E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
                         <c:v>0.14563881573697229</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="31">
+                        <c:v>0.13143404357194158</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
                         <c:v>5.8908739739256484E-2</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="33">
+                        <c:v>5.8039594398841189E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
                         <c:v>0.23447609850313861</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="35">
+                        <c:v>0.19719942056977308</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
                         <c:v>0.35548044422984082</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="37">
+                        <c:v>0.30700144857556744</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
                         <c:v>0.21071945919845492</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="39">
+                        <c:v>0.23804925156929013</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
                         <c:v>0.97086183310533525</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="41">
+                        <c:v>0.9675786593707254</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
                         <c:v>1.3575923392612861</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="43">
+                        <c:v>1.4255813953488374</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
                         <c:v>1.7964432284541725</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="45">
+                        <c:v>1.8192886456908348</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
                         <c:v>1.2337893296853626</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>1.2945280437756499</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3238,78 +4690,150 @@
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>Random100 plane full 0° (parallel)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Random100 plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Random100 plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Random100 plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Random100 plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Random100 plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random100 plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Random100 plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Random1000 plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Random1000 plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Random1000 plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Random1000 plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Random1000 plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Random1000 plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Random1000 plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>Random1000 plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Suzanne plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>Suzanne plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Suzanne plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>Suzanne plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Suzanne plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
+                  <c:v>Suzanne plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>Suzanne plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>Suzanne plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Wood plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
+                  <c:v>Wood plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Wood plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>Wood plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>Wood plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>Wood plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>Wood plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
+                  <c:v>Wood plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>Cottage plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>Cottage plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>Cottage plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
+                  <c:v>Cottage plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>Cottage plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>Cottage plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>Cottage plane full oblique</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>Cottage plane full oblique longest split</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>CottageWalls plane full 0° (parallel)</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
+                  <c:v>CottageWalls plane full 0° (parallel) longest split</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>CottageWalls plane full 15°</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
+                  <c:v>CottageWalls plane full 15° longest split</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>CottageWalls plane full 45°</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="45">
+                  <c:v>CottageWalls plane full 45° longest split</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>CottageWalls plane full oblique</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CottageWalls plane full oblique longest split</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3319,77 +4843,149 @@
               <c:f>Sheet1!$F$3:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.11</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.11</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.64</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.61</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.68</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.63</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.72</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.74</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.65</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.74</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0.89</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0.88</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>0.91</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="42">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4223,7 +5819,7 @@
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6E21C865-E5F8-4FAA-B99B-F8E2D9FAD9A2}">
-  <sheetPr/>
+  <sheetPr codeName="Chart1"/>
   <sheetViews>
     <sheetView zoomScale="145" workbookViewId="0"/>
   </sheetViews>
@@ -4582,17 +6178,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDB448B-8D30-49C7-8BC4-27F1E1998F90}">
-  <sheetPr filterMode="1"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.140625" style="104" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="10" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="11" customWidth="1"/>
     <col min="4" max="4" width="9" style="10" bestFit="1" customWidth="1"/>
@@ -4609,30 +6205,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87"/>
-      <c r="B1" s="130" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="130" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="130" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="130" t="s">
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="131"/>
-      <c r="L1" s="132"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="70"/>
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="88"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
@@ -4669,321 +6265,321 @@
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="106">
+      <c r="B3" s="72">
         <v>11.99</v>
       </c>
-      <c r="C3" s="107">
+      <c r="C3" s="73">
         <v>18.61</v>
       </c>
-      <c r="D3" s="106">
+      <c r="D3" s="72">
         <v>28.88</v>
       </c>
-      <c r="E3" s="108">
+      <c r="E3" s="74">
         <v>15.94</v>
       </c>
-      <c r="F3" s="109">
+      <c r="F3" s="75">
         <v>0.16</v>
       </c>
-      <c r="G3" s="106">
+      <c r="G3" s="72">
         <v>13.21</v>
       </c>
-      <c r="H3" s="108">
+      <c r="H3" s="74">
         <v>7.53</v>
       </c>
-      <c r="I3" s="110">
+      <c r="I3" s="76">
         <f t="shared" ref="I3:I34" si="0">(G3-$B3)/$B3</f>
         <v>0.10175145954962474</v>
       </c>
-      <c r="J3" s="106">
+      <c r="J3" s="72">
         <v>19.68</v>
       </c>
-      <c r="K3" s="108">
+      <c r="K3" s="74">
         <v>10.76</v>
       </c>
-      <c r="L3" s="110">
+      <c r="L3" s="76">
         <f t="shared" ref="L3:L34" si="1">(J3-$C3)/$C3</f>
         <v>5.749596990865128E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="78">
         <v>12.42</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="79">
         <v>18.61</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="78">
         <v>29.74</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="80">
         <v>16.350000000000001</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="81">
         <v>0.15</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="78">
         <v>13.53</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="80">
         <v>7.67</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="82">
         <f t="shared" si="0"/>
         <v>8.9371980676328455E-2</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="78">
         <v>19.77</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="80">
         <v>10.79</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="82">
         <f t="shared" si="1"/>
         <v>6.2332079527135958E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="84">
         <v>14.74</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="85">
         <v>18.61</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="84">
         <v>33.57</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="86">
         <v>18.37</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="87">
         <v>0.13</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="84">
         <v>16.39</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="86">
         <v>9.1199999999999992</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="88">
         <f t="shared" si="0"/>
         <v>0.1119402985074627</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="84">
         <v>20.58</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="86">
         <v>11.2</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="88">
         <f t="shared" si="1"/>
         <v>0.10585706609349806</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89" t="s">
+    <row r="6" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="84">
         <v>14.99</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="85">
         <v>18.61</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="84">
         <v>34.15</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="86">
         <v>18.64</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="87">
         <v>0.12</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="84">
         <v>16.64</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="86">
         <v>9.23</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="88">
         <f t="shared" si="0"/>
         <v>0.11007338225483658</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="84">
         <v>20.68</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="86">
         <v>11.24</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="88">
         <f t="shared" si="1"/>
         <v>0.11123052122514779</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="90">
         <v>15.68</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="91">
         <v>18.61</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="90">
         <v>38.15</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="92">
         <v>20.79</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="93">
         <v>0.11</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="90">
         <v>18.68</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="92">
         <v>10.31</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="94">
         <f t="shared" si="0"/>
         <v>0.19132653061224489</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="90">
         <v>22.76</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="92">
         <v>12.34</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="94">
         <f t="shared" si="1"/>
         <v>0.22299838796346064</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90" t="s">
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="90">
         <v>15.78</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="91">
         <v>18.61</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="90">
         <v>37.950000000000003</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="92">
         <v>20.66</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="93">
         <v>0.11</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="90">
         <v>18.32</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="92">
         <v>10.11</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="94">
         <f t="shared" si="0"/>
         <v>0.16096324461343478</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="90">
         <v>22.77</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="92">
         <v>12.33</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="94">
         <f t="shared" si="1"/>
         <v>0.22353573347662548</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="96">
         <v>17.84</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="97">
         <v>18.61</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="96">
         <v>41.18</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="98">
         <v>22.34</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="99">
         <v>0.11</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="96">
         <v>22.04</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="98">
         <v>12.03</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="100">
         <f t="shared" si="0"/>
         <v>0.23542600896860982</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="96">
         <v>22.77</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="98">
         <v>12.39</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="100">
         <f t="shared" si="1"/>
         <v>0.22353573347662548</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91" t="s">
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="96">
         <v>17.84</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="97">
         <v>18.61</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="96">
         <v>41.43</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="98">
         <v>22.51</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="99">
         <v>0.11</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="96">
         <v>22.16</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="98">
         <v>12.11</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="100">
         <f t="shared" si="0"/>
         <v>0.24215246636771301</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="96">
         <v>22.89</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="98">
         <v>12.48</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="100">
         <f t="shared" si="1"/>
         <v>0.22998387963460512</v>
       </c>
@@ -4992,1839 +6588,1834 @@
       <c r="A11" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="102">
         <v>42.84</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="103">
         <v>67.5</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="102">
         <v>71.14</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="104">
         <v>42.9</v>
       </c>
-      <c r="F11" s="75">
+      <c r="F11" s="105">
         <v>0.79</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="102">
         <v>54.58</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="104">
         <v>33.36</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="106">
         <f t="shared" si="0"/>
         <v>0.27404295051353861</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="102">
         <v>84.65</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="104">
         <v>48.03</v>
       </c>
-      <c r="L11" s="76">
+      <c r="L11" s="106">
         <f t="shared" si="1"/>
         <v>0.25407407407407417</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="102">
         <v>46.41</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="103">
         <v>67.5</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="102">
         <v>74.81</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="104">
         <v>44.93</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="105">
         <v>0.8</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="102">
         <v>58.55</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="104">
         <v>35.54</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="106">
         <f t="shared" si="0"/>
         <v>0.26158155569920277</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="102">
         <v>86.2</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="104">
         <v>48.88</v>
       </c>
-      <c r="L12" s="76">
+      <c r="L12" s="106">
         <f t="shared" si="1"/>
         <v>0.27703703703703708</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="108">
         <v>55.3</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="109">
         <v>67.5</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="108">
         <v>91.32</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="110">
         <v>53.17</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="111">
         <v>0.64</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="108">
         <v>69.19</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="110">
         <v>40.47</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="112">
         <f t="shared" si="0"/>
         <v>0.25117540687160944</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="108">
         <v>84.43</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K13" s="110">
         <v>47.87</v>
       </c>
-      <c r="L13" s="76">
+      <c r="L13" s="112">
         <f t="shared" si="1"/>
         <v>0.25081481481481493</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="101" t="s">
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="72">
+      <c r="B14" s="108">
         <v>54.89</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="109">
         <v>67.5</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="108">
         <v>88.13</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="110">
         <v>51.23</v>
       </c>
-      <c r="F14" s="75">
+      <c r="F14" s="111">
         <v>0.68</v>
       </c>
-      <c r="G14" s="72">
+      <c r="G14" s="108">
         <v>69.48</v>
       </c>
-      <c r="H14" s="74">
+      <c r="H14" s="110">
         <v>40.56</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="112">
         <f t="shared" si="0"/>
         <v>0.26580433594461655</v>
       </c>
-      <c r="J14" s="72">
+      <c r="J14" s="108">
         <v>85.76</v>
       </c>
-      <c r="K14" s="74">
+      <c r="K14" s="110">
         <v>48.54</v>
       </c>
-      <c r="L14" s="76">
+      <c r="L14" s="112">
         <f t="shared" si="1"/>
         <v>0.2705185185185186</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B15" s="114">
         <v>59.91</v>
       </c>
-      <c r="C15" s="83">
+      <c r="C15" s="115">
         <v>67.5</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="114">
         <v>108.13</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="116">
         <v>62.7</v>
       </c>
-      <c r="F15" s="85">
+      <c r="F15" s="117">
         <v>0.61</v>
       </c>
-      <c r="G15" s="82">
+      <c r="G15" s="114">
         <v>82.87</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="116">
         <v>48.16</v>
       </c>
-      <c r="I15" s="86">
+      <c r="I15" s="118">
         <f t="shared" si="0"/>
         <v>0.38324152896010699</v>
       </c>
-      <c r="J15" s="82">
+      <c r="J15" s="114">
         <v>93.2</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="116">
         <v>53</v>
       </c>
-      <c r="L15" s="86">
+      <c r="L15" s="118">
         <f t="shared" si="1"/>
         <v>0.38074074074074077</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="102" t="s">
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B16" s="114">
         <v>60</v>
       </c>
-      <c r="C16" s="83">
+      <c r="C16" s="115">
         <v>67.5</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="114">
         <v>106.73</v>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="116">
         <v>61.74</v>
       </c>
-      <c r="F16" s="85">
+      <c r="F16" s="117">
         <v>0.61</v>
       </c>
-      <c r="G16" s="82">
+      <c r="G16" s="114">
         <v>81.73</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="116">
         <v>47.28</v>
       </c>
-      <c r="I16" s="86">
+      <c r="I16" s="118">
         <f t="shared" si="0"/>
         <v>0.36216666666666675</v>
       </c>
-      <c r="J16" s="82">
+      <c r="J16" s="114">
         <v>90.73</v>
       </c>
-      <c r="K16" s="84">
+      <c r="K16" s="116">
         <v>51.74</v>
       </c>
-      <c r="L16" s="86">
+      <c r="L16" s="118">
         <f t="shared" si="1"/>
         <v>0.3441481481481482</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="77">
+      <c r="B17" s="120">
         <v>66.92</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="121">
         <v>67.5</v>
       </c>
-      <c r="D17" s="77">
+      <c r="D17" s="120">
         <v>126.45</v>
       </c>
-      <c r="E17" s="79">
+      <c r="E17" s="122">
         <v>72.510000000000005</v>
       </c>
-      <c r="F17" s="80">
+      <c r="F17" s="123">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="120">
         <v>98.5</v>
       </c>
-      <c r="H17" s="79">
+      <c r="H17" s="122">
         <v>56.6</v>
       </c>
-      <c r="I17" s="81">
+      <c r="I17" s="124">
         <f t="shared" si="0"/>
         <v>0.47190675433353252</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="120">
         <v>99.46</v>
       </c>
-      <c r="K17" s="79">
+      <c r="K17" s="122">
         <v>56.83</v>
       </c>
-      <c r="L17" s="81">
+      <c r="L17" s="124">
         <f t="shared" si="1"/>
         <v>0.47348148148148139</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="103" t="s">
+    <row r="18" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="77">
+      <c r="B18" s="120">
         <v>66.92</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="121">
         <v>67.5</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="120">
         <v>126.56</v>
       </c>
-      <c r="E18" s="79">
+      <c r="E18" s="122">
         <v>72.45</v>
       </c>
-      <c r="F18" s="80">
+      <c r="F18" s="123">
         <v>0.54</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G18" s="120">
         <v>97.87</v>
       </c>
-      <c r="H18" s="79">
+      <c r="H18" s="122">
         <v>56.08</v>
       </c>
-      <c r="I18" s="81">
+      <c r="I18" s="124">
         <f t="shared" si="0"/>
         <v>0.46249252839211002</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="120">
         <v>98.52</v>
       </c>
-      <c r="K18" s="79">
+      <c r="K18" s="122">
         <v>56.28</v>
       </c>
-      <c r="L18" s="81">
+      <c r="L18" s="124">
         <f t="shared" si="1"/>
         <v>0.45955555555555549</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="126">
         <v>29.49</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="127">
         <v>37.08</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="126">
         <v>36.4</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="128">
         <v>23.54</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="129">
         <v>0.68</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="126">
         <v>32</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="128">
         <v>21.14</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="130">
         <f t="shared" si="0"/>
         <v>8.5113597829772861E-2</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="126">
         <v>45.03</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="128">
         <v>27.97</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="130">
         <f t="shared" si="1"/>
         <v>0.21440129449838197</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="96" t="s">
+    <row r="20" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="126">
         <v>29.47</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="127">
         <v>37.08</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="126">
         <v>37.85</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="128">
         <v>24.75</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="129">
         <v>0.69</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="126">
         <v>32.950000000000003</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="128">
         <v>21.97</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="130">
         <f t="shared" si="0"/>
         <v>0.11808618934509685</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="126">
         <v>45.82</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="128">
         <v>28.7</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="130">
         <f t="shared" si="1"/>
         <v>0.23570658036677461</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="132">
         <v>31.28</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="133">
         <v>37.08</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="132">
         <v>46.44</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="134">
         <v>29.48</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="135">
         <v>0.63</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="132">
         <v>40.619999999999997</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="134">
         <v>26.19</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="136">
         <f t="shared" si="0"/>
         <v>0.29859335038363161</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="132">
         <v>48.56</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="134">
         <v>30.25</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="136">
         <f t="shared" si="1"/>
         <v>0.30960086299892137</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="93" t="s">
+    <row r="22" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="132">
         <v>31.32</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="133">
         <v>37.08</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="132">
         <v>47.99</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="134">
         <v>30.43</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="135">
         <v>0.65</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="132">
         <v>41.79</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="134">
         <v>26.89</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="136">
         <f t="shared" si="0"/>
         <v>0.33429118773946354</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="132">
         <v>49.18</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="134">
         <v>30.64</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="136">
         <f t="shared" si="1"/>
         <v>0.32632146709816617</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="138">
         <v>37.82</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="139">
         <v>37.08</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="138">
         <v>53.99</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="140">
         <v>33.119999999999997</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="141">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="138">
         <v>47.01</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="140">
         <v>29.11</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="142">
         <f t="shared" si="0"/>
         <v>0.2429931253305129</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="138">
         <v>50.17</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="140">
         <v>31.34</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L23" s="142">
         <f t="shared" si="1"/>
         <v>0.35302049622437981</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="94" t="s">
+    <row r="24" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="138">
         <v>37.83</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="139">
         <v>37.08</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="138">
         <v>54.27</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="140">
         <v>33.06</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="141">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="138">
         <v>47.22</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="140">
         <v>29</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="142">
         <f t="shared" si="0"/>
         <v>0.24821570182394928</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="138">
         <v>50.15</v>
       </c>
-      <c r="K24" s="44">
+      <c r="K24" s="140">
         <v>31.15</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24" s="142">
         <f t="shared" si="1"/>
         <v>0.35248112189859765</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="144">
         <v>34.19</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="145">
         <v>37.08</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="144">
         <v>67.3</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="146">
         <v>42.1</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="147">
         <v>0.72</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="144">
         <v>59.68</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="146">
         <v>37.6</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="148">
         <f t="shared" si="0"/>
         <v>0.74553963147119051</v>
       </c>
-      <c r="J25" s="47">
+      <c r="J25" s="144">
         <v>64.94</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="146">
         <v>40.64</v>
       </c>
-      <c r="L25" s="51">
+      <c r="L25" s="148">
         <f t="shared" si="1"/>
         <v>0.75134843581445521</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="95" t="s">
+    <row r="26" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="144">
         <v>34.26</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="145">
         <v>37.08</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="144">
         <v>67.430000000000007</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="146">
         <v>42.18</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="147">
         <v>0.72</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="144">
         <v>59.88</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="146">
         <v>37.72</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="148">
         <f t="shared" si="0"/>
         <v>0.74781085814360793</v>
       </c>
-      <c r="J26" s="47">
+      <c r="J26" s="144">
         <v>64.37</v>
       </c>
-      <c r="K26" s="49">
+      <c r="K26" s="146">
         <v>40.159999999999997</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="148">
         <f t="shared" si="1"/>
         <v>0.73597626752966583</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="111" t="s">
+      <c r="A27" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="112">
+      <c r="B27" s="150">
         <v>72.81</v>
       </c>
-      <c r="C27" s="113">
+      <c r="C27" s="151">
         <v>125.31</v>
       </c>
-      <c r="D27" s="112">
+      <c r="D27" s="150">
         <v>100.09</v>
       </c>
-      <c r="E27" s="114">
+      <c r="E27" s="152">
         <v>66.52</v>
       </c>
-      <c r="F27" s="115">
+      <c r="F27" s="153">
         <v>0.74</v>
       </c>
-      <c r="G27" s="112">
+      <c r="G27" s="150">
         <v>74.52</v>
       </c>
-      <c r="H27" s="114">
+      <c r="H27" s="152">
         <v>48.72</v>
       </c>
-      <c r="I27" s="116">
+      <c r="I27" s="154">
         <f t="shared" si="0"/>
         <v>2.3485784919653807E-2</v>
       </c>
-      <c r="J27" s="112">
+      <c r="J27" s="150">
         <v>141.59</v>
       </c>
-      <c r="K27" s="114">
+      <c r="K27" s="152">
         <v>99.41</v>
       </c>
-      <c r="L27" s="116">
+      <c r="L27" s="154">
         <f t="shared" si="1"/>
         <v>0.12991780384646079</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+    <row r="28" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="156">
         <v>90.33</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="157">
         <v>125.31</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="156">
         <v>113.7</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="158">
         <v>76.540000000000006</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F28" s="159">
         <v>0.75</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="156">
         <v>88.18</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="158">
         <v>58.67</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="160">
         <f t="shared" si="0"/>
         <v>-2.3801616295804181E-2</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="156">
         <v>141.27000000000001</v>
       </c>
-      <c r="K28" s="54">
+      <c r="K28" s="158">
         <v>98.2</v>
       </c>
-      <c r="L28" s="56">
+      <c r="L28" s="160">
         <f t="shared" si="1"/>
         <v>0.1273641369403879</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="162">
         <v>78.53</v>
       </c>
-      <c r="C29" s="63">
+      <c r="C29" s="163">
         <v>125.31</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="162">
         <v>90.01</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E29" s="164">
         <v>56.81</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="165">
         <v>0.65</v>
       </c>
-      <c r="G29" s="62">
+      <c r="G29" s="162">
         <v>74.349999999999994</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="164">
         <v>46.68</v>
       </c>
-      <c r="I29" s="66">
+      <c r="I29" s="166">
         <f t="shared" si="0"/>
         <v>-5.3228065707373068E-2</v>
       </c>
-      <c r="J29" s="62">
+      <c r="J29" s="162">
         <v>137.16</v>
       </c>
-      <c r="K29" s="64">
+      <c r="K29" s="164">
         <v>96.56</v>
       </c>
-      <c r="L29" s="66">
+      <c r="L29" s="166">
         <f t="shared" si="1"/>
         <v>9.4565477615513482E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="97" t="s">
+    <row r="30" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="62">
+      <c r="B30" s="162">
         <v>135.19</v>
       </c>
-      <c r="C30" s="63">
+      <c r="C30" s="163">
         <v>125.31</v>
       </c>
-      <c r="D30" s="62">
+      <c r="D30" s="162">
         <v>136.86000000000001</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="164">
         <v>94.22</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="165">
         <v>0.63</v>
       </c>
-      <c r="G30" s="62">
+      <c r="G30" s="162">
         <v>120.59</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="164">
         <v>83.8</v>
       </c>
-      <c r="I30" s="66">
+      <c r="I30" s="166">
         <f t="shared" si="0"/>
         <v>-0.10799615356165393</v>
       </c>
-      <c r="J30" s="62">
+      <c r="J30" s="162">
         <v>131.88999999999999</v>
       </c>
-      <c r="K30" s="64">
+      <c r="K30" s="164">
         <v>99.23</v>
       </c>
-      <c r="L30" s="66">
+      <c r="L30" s="166">
         <f t="shared" si="1"/>
         <v>5.2509775756124685E-2</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="168">
         <v>75.680000000000007</v>
       </c>
-      <c r="C31" s="58">
+      <c r="C31" s="169">
         <v>125.31</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="168">
         <v>90.41</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="170">
         <v>55.22</v>
       </c>
-      <c r="F31" s="60">
+      <c r="F31" s="171">
         <v>0.7</v>
       </c>
-      <c r="G31" s="57">
+      <c r="G31" s="168">
         <v>77.61</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="170">
         <v>47</v>
       </c>
-      <c r="I31" s="61">
+      <c r="I31" s="172">
         <f t="shared" si="0"/>
         <v>2.5502114164904763E-2</v>
       </c>
-      <c r="J31" s="57">
+      <c r="J31" s="168">
         <v>130.24</v>
       </c>
-      <c r="K31" s="59">
+      <c r="K31" s="170">
         <v>88.72</v>
       </c>
-      <c r="L31" s="61">
+      <c r="L31" s="172">
         <f t="shared" si="1"/>
         <v>3.9342430771686275E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="98" t="s">
+    <row r="32" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="57">
+      <c r="B32" s="168">
         <v>100.06</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="169">
         <v>125.31</v>
       </c>
-      <c r="D32" s="57">
+      <c r="D32" s="168">
         <v>111.85</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="170">
         <v>72.709999999999994</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="171">
         <v>0.73</v>
       </c>
-      <c r="G32" s="57">
+      <c r="G32" s="168">
         <v>100.76</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="170">
         <v>65.64</v>
       </c>
-      <c r="I32" s="61">
+      <c r="I32" s="172">
         <f t="shared" si="0"/>
         <v>6.9958025184889347E-3</v>
       </c>
-      <c r="J32" s="57">
+      <c r="J32" s="168">
         <v>133.63999999999999</v>
       </c>
-      <c r="K32" s="59">
+      <c r="K32" s="170">
         <v>91.09</v>
       </c>
-      <c r="L32" s="61">
+      <c r="L32" s="172">
         <f t="shared" si="1"/>
         <v>6.6475141648711072E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="99" t="s">
+      <c r="A33" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="67">
+      <c r="B33" s="174">
         <v>73.83</v>
       </c>
-      <c r="C33" s="68">
+      <c r="C33" s="175">
         <v>125.31</v>
       </c>
-      <c r="D33" s="67">
+      <c r="D33" s="174">
         <v>92.76</v>
       </c>
-      <c r="E33" s="69">
+      <c r="E33" s="176">
         <v>56.73</v>
       </c>
-      <c r="F33" s="70">
+      <c r="F33" s="177">
         <v>0.7</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="174">
         <v>82.54</v>
       </c>
-      <c r="H33" s="69">
+      <c r="H33" s="176">
         <v>50.37</v>
       </c>
-      <c r="I33" s="71">
+      <c r="I33" s="178">
         <f t="shared" si="0"/>
         <v>0.11797372341866461</v>
       </c>
-      <c r="J33" s="67">
+      <c r="J33" s="174">
         <v>143.56</v>
       </c>
-      <c r="K33" s="69">
+      <c r="K33" s="176">
         <v>102.02</v>
       </c>
-      <c r="L33" s="71">
+      <c r="L33" s="178">
         <f t="shared" si="1"/>
         <v>0.14563881573697229</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="99" t="s">
+    <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="67">
+      <c r="B34" s="174">
         <v>92.73</v>
       </c>
-      <c r="C34" s="68">
+      <c r="C34" s="175">
         <v>125.31</v>
       </c>
-      <c r="D34" s="67">
+      <c r="D34" s="174">
         <v>109.62</v>
       </c>
-      <c r="E34" s="69">
+      <c r="E34" s="176">
         <v>70.87</v>
       </c>
-      <c r="F34" s="70">
+      <c r="F34" s="177">
         <v>0.7</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="174">
         <v>99.72</v>
       </c>
-      <c r="H34" s="69">
+      <c r="H34" s="176">
         <v>64.67</v>
       </c>
-      <c r="I34" s="71">
+      <c r="I34" s="178">
         <f t="shared" si="0"/>
         <v>7.5380135878356458E-2</v>
       </c>
-      <c r="J34" s="67">
+      <c r="J34" s="174">
         <v>141.78</v>
       </c>
-      <c r="K34" s="69">
+      <c r="K34" s="176">
         <v>101.1</v>
       </c>
-      <c r="L34" s="71">
+      <c r="L34" s="178">
         <f t="shared" si="1"/>
         <v>0.13143404357194158</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="133">
+      <c r="B35" s="28">
         <v>52.99</v>
       </c>
-      <c r="C35" s="143">
+      <c r="C35" s="38">
         <v>103.55</v>
       </c>
-      <c r="D35" s="133">
+      <c r="D35" s="28">
         <v>83.64</v>
       </c>
-      <c r="E35" s="138">
+      <c r="E35" s="33">
         <v>59.42</v>
       </c>
-      <c r="F35" s="122">
+      <c r="F35" s="20">
         <v>0.74</v>
       </c>
-      <c r="G35" s="133">
+      <c r="G35" s="28">
         <v>52.14</v>
       </c>
-      <c r="H35" s="138">
+      <c r="H35" s="33">
         <v>35.79</v>
       </c>
-      <c r="I35" s="126">
+      <c r="I35" s="24">
         <f t="shared" ref="I35:I42" si="2">(G35-$B35)/$B35</f>
         <v>-1.6040762408001535E-2</v>
       </c>
-      <c r="J35" s="133">
+      <c r="J35" s="28">
         <v>109.65</v>
       </c>
-      <c r="K35" s="138">
+      <c r="K35" s="33">
         <v>77.11</v>
       </c>
-      <c r="L35" s="126">
+      <c r="L35" s="24">
         <f t="shared" ref="L35:L42" si="3">(J35-$C35)/$C35</f>
         <v>5.8908739739256484E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="118" t="s">
+    <row r="36" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="133">
+      <c r="B36" s="28">
         <v>72.930000000000007</v>
       </c>
-      <c r="C36" s="143">
+      <c r="C36" s="38">
         <v>103.55</v>
       </c>
-      <c r="D36" s="133">
+      <c r="D36" s="28">
         <v>105.65</v>
       </c>
-      <c r="E36" s="138">
+      <c r="E36" s="33">
         <v>76.599999999999994</v>
       </c>
-      <c r="F36" s="122">
+      <c r="F36" s="20">
         <v>0.75</v>
       </c>
-      <c r="G36" s="133">
+      <c r="G36" s="28">
         <v>72.09</v>
       </c>
-      <c r="H36" s="138">
+      <c r="H36" s="33">
         <v>51.29</v>
       </c>
-      <c r="I36" s="126">
+      <c r="I36" s="24">
         <f t="shared" si="2"/>
         <v>-1.1517893870835093E-2</v>
       </c>
-      <c r="J36" s="133">
+      <c r="J36" s="28">
         <v>109.56</v>
       </c>
-      <c r="K36" s="138">
+      <c r="K36" s="33">
         <v>77.88</v>
       </c>
-      <c r="L36" s="126">
+      <c r="L36" s="24">
         <f t="shared" si="3"/>
         <v>5.8039594398841189E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="119" t="s">
+      <c r="A37" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="134">
+      <c r="B37" s="29">
         <v>71.52</v>
       </c>
-      <c r="C37" s="144">
+      <c r="C37" s="39">
         <v>103.55</v>
       </c>
-      <c r="D37" s="134">
+      <c r="D37" s="29">
         <v>83.04</v>
       </c>
-      <c r="E37" s="139">
+      <c r="E37" s="34">
         <v>53.1</v>
       </c>
-      <c r="F37" s="123">
+      <c r="F37" s="21">
         <v>0.89</v>
       </c>
-      <c r="G37" s="134">
+      <c r="G37" s="29">
         <v>74.45</v>
       </c>
-      <c r="H37" s="139">
+      <c r="H37" s="34">
         <v>46.71</v>
       </c>
-      <c r="I37" s="127">
+      <c r="I37" s="25">
         <f t="shared" si="2"/>
         <v>4.0967561521252895E-2</v>
       </c>
-      <c r="J37" s="134">
+      <c r="J37" s="29">
         <v>127.83</v>
       </c>
-      <c r="K37" s="139">
+      <c r="K37" s="34">
         <v>91.22</v>
       </c>
-      <c r="L37" s="127">
+      <c r="L37" s="25">
         <f t="shared" si="3"/>
         <v>0.23447609850313861</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="119" t="s">
+    <row r="38" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="134">
+      <c r="B38" s="29">
         <v>110.35</v>
       </c>
-      <c r="C38" s="144">
+      <c r="C38" s="39">
         <v>103.55</v>
       </c>
-      <c r="D38" s="134">
+      <c r="D38" s="29">
         <v>122.11</v>
       </c>
-      <c r="E38" s="139">
+      <c r="E38" s="34">
         <v>86.55</v>
       </c>
-      <c r="F38" s="123">
+      <c r="F38" s="21">
         <v>0.87</v>
       </c>
-      <c r="G38" s="134">
+      <c r="G38" s="29">
         <v>111.28</v>
       </c>
-      <c r="H38" s="139">
+      <c r="H38" s="34">
         <v>78.459999999999994</v>
       </c>
-      <c r="I38" s="127">
+      <c r="I38" s="25">
         <f t="shared" si="2"/>
         <v>8.4277299501586481E-3</v>
       </c>
-      <c r="J38" s="134">
+      <c r="J38" s="29">
         <v>123.97</v>
       </c>
-      <c r="K38" s="139">
+      <c r="K38" s="34">
         <v>87.8</v>
       </c>
-      <c r="L38" s="127">
+      <c r="L38" s="25">
         <f t="shared" si="3"/>
         <v>0.19719942056977308</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="120" t="s">
+      <c r="A39" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="135">
+      <c r="B39" s="30">
         <v>71.77</v>
       </c>
-      <c r="C39" s="145">
+      <c r="C39" s="40">
         <v>103.55</v>
       </c>
-      <c r="D39" s="135">
+      <c r="D39" s="30">
         <v>83.17</v>
       </c>
-      <c r="E39" s="140">
+      <c r="E39" s="35">
         <v>51.22</v>
       </c>
-      <c r="F39" s="124">
+      <c r="F39" s="22">
         <v>0.88</v>
       </c>
-      <c r="G39" s="135">
+      <c r="G39" s="30">
         <v>74.260000000000005</v>
       </c>
-      <c r="H39" s="140">
+      <c r="H39" s="35">
         <v>44.97</v>
       </c>
-      <c r="I39" s="128">
+      <c r="I39" s="26">
         <f t="shared" si="2"/>
         <v>3.4694161906089024E-2</v>
       </c>
-      <c r="J39" s="135">
+      <c r="J39" s="30">
         <v>140.36000000000001</v>
       </c>
-      <c r="K39" s="140">
+      <c r="K39" s="35">
         <v>100.61</v>
       </c>
-      <c r="L39" s="128">
+      <c r="L39" s="26">
         <f t="shared" si="3"/>
         <v>0.35548044422984082</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="120" t="s">
+    <row r="40" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="135">
+      <c r="B40" s="30">
         <v>134.52000000000001</v>
       </c>
-      <c r="C40" s="145">
+      <c r="C40" s="40">
         <v>103.55</v>
       </c>
-      <c r="D40" s="135">
+      <c r="D40" s="30">
         <v>140.46</v>
       </c>
-      <c r="E40" s="140">
+      <c r="E40" s="35">
         <v>100.49</v>
       </c>
-      <c r="F40" s="124">
+      <c r="F40" s="22">
         <v>0.86</v>
       </c>
-      <c r="G40" s="135">
+      <c r="G40" s="30">
         <v>127.98</v>
       </c>
-      <c r="H40" s="140">
+      <c r="H40" s="35">
         <v>91.21</v>
       </c>
-      <c r="I40" s="128">
+      <c r="I40" s="26">
         <f t="shared" si="2"/>
         <v>-4.8617305976806469E-2</v>
       </c>
-      <c r="J40" s="135">
+      <c r="J40" s="30">
         <v>135.34</v>
       </c>
-      <c r="K40" s="140">
+      <c r="K40" s="35">
         <v>97.1</v>
       </c>
-      <c r="L40" s="128">
+      <c r="L40" s="26">
         <f t="shared" si="3"/>
         <v>0.30700144857556744</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="121" t="s">
+      <c r="A41" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="136">
+      <c r="B41" s="31">
         <v>64.069999999999993</v>
       </c>
-      <c r="C41" s="146">
+      <c r="C41" s="41">
         <v>103.55</v>
       </c>
-      <c r="D41" s="136">
+      <c r="D41" s="31">
         <v>77.430000000000007</v>
       </c>
-      <c r="E41" s="141">
+      <c r="E41" s="36">
         <v>47.55</v>
       </c>
-      <c r="F41" s="125">
+      <c r="F41" s="23">
         <v>0.91</v>
       </c>
-      <c r="G41" s="136">
+      <c r="G41" s="31">
         <v>72.180000000000007</v>
       </c>
-      <c r="H41" s="141">
+      <c r="H41" s="36">
         <v>43.8</v>
       </c>
-      <c r="I41" s="129">
+      <c r="I41" s="27">
         <f t="shared" si="2"/>
         <v>0.12658030279381949</v>
       </c>
-      <c r="J41" s="136">
+      <c r="J41" s="31">
         <v>125.37</v>
       </c>
-      <c r="K41" s="141">
+      <c r="K41" s="36">
         <v>88.96</v>
       </c>
-      <c r="L41" s="129">
+      <c r="L41" s="27">
         <f t="shared" si="3"/>
         <v>0.21071945919845492</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="121" t="s">
+    <row r="42" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="136">
+      <c r="B42" s="31">
         <v>113.63</v>
       </c>
-      <c r="C42" s="146">
+      <c r="C42" s="41">
         <v>103.55</v>
       </c>
-      <c r="D42" s="136">
+      <c r="D42" s="31">
         <v>122.66</v>
       </c>
-      <c r="E42" s="141">
+      <c r="E42" s="36">
         <v>87.5</v>
       </c>
-      <c r="F42" s="125">
+      <c r="F42" s="23">
         <v>0.9</v>
       </c>
-      <c r="G42" s="136">
+      <c r="G42" s="31">
         <v>118.1</v>
       </c>
-      <c r="H42" s="141">
+      <c r="H42" s="36">
         <v>84.32</v>
       </c>
-      <c r="I42" s="129">
+      <c r="I42" s="27">
         <f t="shared" si="2"/>
         <v>3.9338202939364596E-2</v>
       </c>
-      <c r="J42" s="136">
+      <c r="J42" s="31">
         <v>128.19999999999999</v>
       </c>
-      <c r="K42" s="141">
+      <c r="K42" s="36">
         <v>91.5</v>
       </c>
-      <c r="L42" s="129">
+      <c r="L42" s="27">
         <f t="shared" si="3"/>
         <v>0.23804925156929013</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="148" t="s">
+      <c r="A43" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="149">
+      <c r="B43" s="44">
         <v>64.900000000000006</v>
       </c>
-      <c r="C43" s="150">
+      <c r="C43" s="45">
         <v>73.099999999999994</v>
       </c>
-      <c r="D43" s="149">
+      <c r="D43" s="44">
         <v>59.65</v>
       </c>
-      <c r="E43" s="151">
+      <c r="E43" s="46">
         <v>40.03</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="47">
         <v>1</v>
       </c>
-      <c r="G43" s="149">
+      <c r="G43" s="44">
         <v>59.65</v>
       </c>
-      <c r="H43" s="151">
+      <c r="H43" s="46">
         <v>39.950000000000003</v>
       </c>
-      <c r="I43" s="153">
+      <c r="I43" s="48">
         <f t="shared" ref="I43:I50" si="4">(G43-$B43)/$B43</f>
         <v>-8.0893682588597943E-2</v>
       </c>
-      <c r="J43" s="149">
+      <c r="J43" s="44">
         <v>144.07</v>
       </c>
-      <c r="K43" s="151">
+      <c r="K43" s="46">
         <v>98.18</v>
       </c>
-      <c r="L43" s="153">
+      <c r="L43" s="48">
         <f t="shared" ref="L43:L50" si="5">(J43-$C43)/$C43</f>
         <v>0.97086183310533525</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="154" t="s">
+    <row r="44" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="149">
+      <c r="B44" s="44">
         <v>103.52</v>
       </c>
-      <c r="C44" s="150">
+      <c r="C44" s="45">
         <v>73.099999999999994</v>
       </c>
-      <c r="D44" s="149">
+      <c r="D44" s="44">
         <v>108.41</v>
       </c>
-      <c r="E44" s="151">
+      <c r="E44" s="46">
         <v>74.680000000000007</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="47">
         <v>1</v>
       </c>
-      <c r="G44" s="149">
+      <c r="G44" s="44">
         <v>108.41</v>
       </c>
-      <c r="H44" s="151">
+      <c r="H44" s="46">
         <v>74.680000000000007</v>
       </c>
-      <c r="I44" s="153">
+      <c r="I44" s="48">
         <f t="shared" si="4"/>
         <v>4.7237248840803714E-2</v>
       </c>
-      <c r="J44" s="149">
+      <c r="J44" s="44">
         <v>143.83000000000001</v>
       </c>
-      <c r="K44" s="151">
+      <c r="K44" s="46">
         <v>97.88</v>
       </c>
-      <c r="L44" s="153">
+      <c r="L44" s="48">
         <f t="shared" si="5"/>
         <v>0.9675786593707254</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="156">
+      <c r="B45" s="51">
         <v>70.19</v>
       </c>
-      <c r="C45" s="157">
+      <c r="C45" s="52">
         <v>73.099999999999994</v>
       </c>
-      <c r="D45" s="156">
+      <c r="D45" s="51">
         <v>94.85</v>
       </c>
-      <c r="E45" s="158">
+      <c r="E45" s="53">
         <v>59.4</v>
       </c>
-      <c r="F45" s="159">
+      <c r="F45" s="54">
         <v>1</v>
       </c>
-      <c r="G45" s="156">
+      <c r="G45" s="51">
         <v>94.85</v>
       </c>
-      <c r="H45" s="158">
+      <c r="H45" s="53">
         <v>59.4</v>
       </c>
-      <c r="I45" s="160">
+      <c r="I45" s="55">
         <f t="shared" si="4"/>
         <v>0.35133209858954262</v>
       </c>
-      <c r="J45" s="156">
+      <c r="J45" s="51">
         <v>172.34</v>
       </c>
-      <c r="K45" s="158">
+      <c r="K45" s="53">
         <v>117.96</v>
       </c>
-      <c r="L45" s="160">
+      <c r="L45" s="55">
         <f t="shared" si="5"/>
         <v>1.3575923392612861</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="155" t="s">
+    <row r="46" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="156">
+      <c r="B46" s="51">
         <v>91.06</v>
       </c>
-      <c r="C46" s="157">
+      <c r="C46" s="52">
         <v>73.099999999999994</v>
       </c>
-      <c r="D46" s="156">
+      <c r="D46" s="51">
         <v>119.73</v>
       </c>
-      <c r="E46" s="158">
+      <c r="E46" s="53">
         <v>81.430000000000007</v>
       </c>
-      <c r="F46" s="159">
+      <c r="F46" s="54">
         <v>1</v>
       </c>
-      <c r="G46" s="156">
+      <c r="G46" s="51">
         <v>119.73</v>
       </c>
-      <c r="H46" s="158">
+      <c r="H46" s="53">
         <v>81.430000000000007</v>
       </c>
-      <c r="I46" s="160">
+      <c r="I46" s="55">
         <f t="shared" si="4"/>
         <v>0.314847353393367</v>
       </c>
-      <c r="J46" s="156">
+      <c r="J46" s="51">
         <v>177.31</v>
       </c>
-      <c r="K46" s="158">
+      <c r="K46" s="53">
         <v>122.2</v>
       </c>
-      <c r="L46" s="160">
+      <c r="L46" s="55">
         <f t="shared" si="5"/>
         <v>1.4255813953488374</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="161" t="s">
+      <c r="A47" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="162">
+      <c r="B47" s="57">
         <v>67.41</v>
       </c>
-      <c r="C47" s="163">
+      <c r="C47" s="58">
         <v>73.099999999999994</v>
       </c>
-      <c r="D47" s="162">
+      <c r="D47" s="57">
         <v>89.05</v>
       </c>
-      <c r="E47" s="164">
+      <c r="E47" s="59">
         <v>52.4</v>
       </c>
-      <c r="F47" s="165">
+      <c r="F47" s="60">
         <v>1</v>
       </c>
-      <c r="G47" s="162">
+      <c r="G47" s="57">
         <v>89.05</v>
       </c>
-      <c r="H47" s="164">
+      <c r="H47" s="59">
         <v>52.4</v>
       </c>
-      <c r="I47" s="166">
+      <c r="I47" s="61">
         <f t="shared" si="4"/>
         <v>0.32102062008604065</v>
       </c>
-      <c r="J47" s="162">
+      <c r="J47" s="57">
         <v>204.42</v>
       </c>
-      <c r="K47" s="164">
+      <c r="K47" s="59">
         <v>143.21</v>
       </c>
-      <c r="L47" s="166">
+      <c r="L47" s="61">
         <f t="shared" si="5"/>
         <v>1.7964432284541725</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="161" t="s">
+    <row r="48" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="162">
+      <c r="B48" s="57">
         <v>115.8</v>
       </c>
-      <c r="C48" s="163">
+      <c r="C48" s="58">
         <v>73.099999999999994</v>
       </c>
-      <c r="D48" s="162">
+      <c r="D48" s="57">
         <v>162.26</v>
       </c>
-      <c r="E48" s="164">
+      <c r="E48" s="59">
         <v>114.52</v>
       </c>
-      <c r="F48" s="165">
+      <c r="F48" s="60">
         <v>1</v>
       </c>
-      <c r="G48" s="162">
+      <c r="G48" s="57">
         <v>162.26</v>
       </c>
-      <c r="H48" s="164">
+      <c r="H48" s="59">
         <v>114.52</v>
       </c>
-      <c r="I48" s="166">
+      <c r="I48" s="61">
         <f t="shared" si="4"/>
         <v>0.40120898100172708</v>
       </c>
-      <c r="J48" s="162">
+      <c r="J48" s="57">
         <v>206.09</v>
       </c>
-      <c r="K48" s="164">
+      <c r="K48" s="59">
         <v>145.22999999999999</v>
       </c>
-      <c r="L48" s="166">
+      <c r="L48" s="61">
         <f t="shared" si="5"/>
         <v>1.8192886456908348</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="167" t="s">
+      <c r="A49" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="168">
+      <c r="B49" s="63">
         <v>49.41</v>
       </c>
-      <c r="C49" s="169">
+      <c r="C49" s="64">
         <v>73.099999999999994</v>
       </c>
-      <c r="D49" s="168">
+      <c r="D49" s="63">
         <v>94.89</v>
       </c>
-      <c r="E49" s="170">
+      <c r="E49" s="65">
         <v>56.34</v>
       </c>
-      <c r="F49" s="171">
+      <c r="F49" s="66">
         <v>1</v>
       </c>
-      <c r="G49" s="168">
+      <c r="G49" s="63">
         <v>94.89</v>
       </c>
-      <c r="H49" s="170">
+      <c r="H49" s="65">
         <v>56.34</v>
       </c>
-      <c r="I49" s="172">
+      <c r="I49" s="67">
         <f t="shared" si="4"/>
         <v>0.9204614450516091</v>
       </c>
-      <c r="J49" s="168">
+      <c r="J49" s="63">
         <v>163.29</v>
       </c>
-      <c r="K49" s="170">
+      <c r="K49" s="65">
         <v>112.11</v>
       </c>
-      <c r="L49" s="172">
+      <c r="L49" s="67">
         <f t="shared" si="5"/>
         <v>1.2337893296853626</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="167" t="s">
+    <row r="50" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="168">
+      <c r="B50" s="63">
         <v>65.62</v>
       </c>
-      <c r="C50" s="169">
+      <c r="C50" s="64">
         <v>73.099999999999994</v>
       </c>
-      <c r="D50" s="168">
+      <c r="D50" s="63">
         <v>108.61</v>
       </c>
-      <c r="E50" s="170">
+      <c r="E50" s="65">
         <v>68.92</v>
       </c>
-      <c r="F50" s="171">
+      <c r="F50" s="66">
         <v>1</v>
       </c>
-      <c r="G50" s="168">
+      <c r="G50" s="63">
         <v>108.61</v>
       </c>
-      <c r="H50" s="170">
+      <c r="H50" s="65">
         <v>68.92</v>
       </c>
-      <c r="I50" s="172">
+      <c r="I50" s="67">
         <f t="shared" si="4"/>
         <v>0.65513562938128611</v>
       </c>
-      <c r="J50" s="168">
+      <c r="J50" s="63">
         <v>167.73</v>
       </c>
-      <c r="K50" s="170">
+      <c r="K50" s="65">
         <v>115.72</v>
       </c>
-      <c r="L50" s="172">
+      <c r="L50" s="67">
         <f t="shared" si="5"/>
         <v>1.2945280437756499</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="137"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="142"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="142"/>
-      <c r="J51" s="137"/>
-      <c r="K51" s="142"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="37"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="37"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="37"/>
     </row>
     <row r="52" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="137"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="142"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="142"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="142"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="37"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="37"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="37"/>
     </row>
     <row r="53" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="137"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="142"/>
-      <c r="G53" s="137"/>
-      <c r="H53" s="142"/>
-      <c r="J53" s="137"/>
-      <c r="K53" s="142"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="37"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="37"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="37"/>
     </row>
     <row r="54" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="137"/>
-      <c r="C54" s="147"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="142"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="142"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="142"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="37"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="37"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="37"/>
     </row>
     <row r="55" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="137"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="142"/>
-      <c r="G55" s="137"/>
-      <c r="H55" s="142"/>
-      <c r="J55" s="137"/>
-      <c r="K55" s="142"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="37"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="37"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="37"/>
     </row>
     <row r="56" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="137"/>
-      <c r="C56" s="147"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="142"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="142"/>
-      <c r="J56" s="137"/>
-      <c r="K56" s="142"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="37"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="37"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="37"/>
     </row>
     <row r="57" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="137"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="142"/>
-      <c r="G57" s="137"/>
-      <c r="H57" s="142"/>
-      <c r="J57" s="137"/>
-      <c r="K57" s="142"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="37"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="37"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="137"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="142"/>
-      <c r="G58" s="137"/>
-      <c r="H58" s="142"/>
-      <c r="J58" s="137"/>
-      <c r="K58" s="142"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="37"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="37"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="37"/>
     </row>
     <row r="59" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="137"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="142"/>
-      <c r="G59" s="137"/>
-      <c r="H59" s="142"/>
-      <c r="J59" s="137"/>
-      <c r="K59" s="142"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="37"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="37"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="37"/>
     </row>
     <row r="60" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="137"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="142"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="142"/>
-      <c r="J60" s="137"/>
-      <c r="K60" s="142"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="37"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="37"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="37"/>
     </row>
     <row r="61" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="137"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="142"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="142"/>
-      <c r="J61" s="137"/>
-      <c r="K61" s="142"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="37"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="37"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="37"/>
     </row>
     <row r="62" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="137"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="142"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="142"/>
-      <c r="J62" s="137"/>
-      <c r="K62" s="142"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="37"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="37"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="37"/>
     </row>
     <row r="63" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="137"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="142"/>
-      <c r="G63" s="137"/>
-      <c r="H63" s="142"/>
-      <c r="J63" s="137"/>
-      <c r="K63" s="142"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="37"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="37"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="37"/>
     </row>
     <row r="64" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="137"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="137"/>
-      <c r="E64" s="142"/>
-      <c r="G64" s="137"/>
-      <c r="H64" s="142"/>
-      <c r="J64" s="137"/>
-      <c r="K64" s="142"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="37"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="37"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="37"/>
     </row>
     <row r="65" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="137"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="142"/>
-      <c r="G65" s="137"/>
-      <c r="H65" s="142"/>
-      <c r="J65" s="137"/>
-      <c r="K65" s="142"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="37"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="37"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="37"/>
     </row>
     <row r="66" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="137"/>
-      <c r="C66" s="147"/>
-      <c r="D66" s="137"/>
-      <c r="E66" s="142"/>
-      <c r="G66" s="137"/>
-      <c r="H66" s="142"/>
-      <c r="J66" s="137"/>
-      <c r="K66" s="142"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="37"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="37"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="37"/>
     </row>
     <row r="67" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="137"/>
-      <c r="C67" s="147"/>
-      <c r="D67" s="137"/>
-      <c r="E67" s="142"/>
-      <c r="G67" s="137"/>
-      <c r="H67" s="142"/>
-      <c r="J67" s="137"/>
-      <c r="K67" s="142"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="37"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="37"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="37"/>
     </row>
     <row r="68" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="137"/>
-      <c r="C68" s="147"/>
-      <c r="D68" s="137"/>
-      <c r="E68" s="142"/>
-      <c r="G68" s="137"/>
-      <c r="H68" s="142"/>
-      <c r="J68" s="137"/>
-      <c r="K68" s="142"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="37"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="37"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="37"/>
     </row>
     <row r="69" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="137"/>
-      <c r="C69" s="147"/>
-      <c r="D69" s="137"/>
-      <c r="E69" s="142"/>
-      <c r="G69" s="137"/>
-      <c r="H69" s="142"/>
-      <c r="J69" s="137"/>
-      <c r="K69" s="142"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="37"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="37"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="37"/>
     </row>
     <row r="70" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="137"/>
-      <c r="C70" s="147"/>
-      <c r="D70" s="137"/>
-      <c r="E70" s="142"/>
-      <c r="G70" s="137"/>
-      <c r="H70" s="142"/>
-      <c r="J70" s="137"/>
-      <c r="K70" s="142"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="37"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="37"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="37"/>
     </row>
     <row r="71" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="137"/>
-      <c r="C71" s="147"/>
-      <c r="D71" s="137"/>
-      <c r="E71" s="142"/>
-      <c r="G71" s="137"/>
-      <c r="H71" s="142"/>
-      <c r="J71" s="137"/>
-      <c r="K71" s="142"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="37"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="37"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="37"/>
     </row>
     <row r="72" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="137"/>
-      <c r="C72" s="147"/>
-      <c r="D72" s="137"/>
-      <c r="E72" s="142"/>
-      <c r="G72" s="137"/>
-      <c r="H72" s="142"/>
-      <c r="J72" s="137"/>
-      <c r="K72" s="142"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="37"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="37"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="37"/>
     </row>
     <row r="73" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="137"/>
-      <c r="C73" s="147"/>
-      <c r="D73" s="137"/>
-      <c r="E73" s="142"/>
-      <c r="G73" s="137"/>
-      <c r="H73" s="142"/>
-      <c r="J73" s="137"/>
-      <c r="K73" s="142"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="37"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="37"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L50" xr:uid="{6CDB448B-8D30-49C7-8BC4-27F1E1998F90}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val="*long*"/>
-      </customFilters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L34">
       <sortCondition ref="A2:A34"/>
     </sortState>
